--- a/Radiology/Application/example_reports/Patient info.xlsx
+++ b/Radiology/Application/example_reports/Patient info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.kapilivsky\PycharmProjects\Radiology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.kapilivsky\PycharmProjects\Applications\Radiology\Application\example_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,558 @@
   </si>
   <si>
     <t>Allan Kap</t>
+  </si>
+  <si>
+    <t>Allan Kap2</t>
+  </si>
+  <si>
+    <t>Allan Kap3</t>
+  </si>
+  <si>
+    <t>Allan Kap4</t>
+  </si>
+  <si>
+    <t>Allan Kap5</t>
+  </si>
+  <si>
+    <t>Allan Kap6</t>
+  </si>
+  <si>
+    <t>Allan Kap7</t>
+  </si>
+  <si>
+    <t>Allan Kap8</t>
+  </si>
+  <si>
+    <t>Allan Kap9</t>
+  </si>
+  <si>
+    <t>Allan Kap10</t>
+  </si>
+  <si>
+    <t>Allan Kap11</t>
+  </si>
+  <si>
+    <t>Allan Kap12</t>
+  </si>
+  <si>
+    <t>Allan Kap13</t>
+  </si>
+  <si>
+    <t>Allan Kap14</t>
+  </si>
+  <si>
+    <t>Allan Kap15</t>
+  </si>
+  <si>
+    <t>Allan Kap16</t>
+  </si>
+  <si>
+    <t>Allan Kap17</t>
+  </si>
+  <si>
+    <t>Allan Kap18</t>
+  </si>
+  <si>
+    <t>Allan Kap19</t>
+  </si>
+  <si>
+    <t>Allan Kap20</t>
+  </si>
+  <si>
+    <t>Allan Kap21</t>
+  </si>
+  <si>
+    <t>Allan Kap22</t>
+  </si>
+  <si>
+    <t>Allan Kap23</t>
+  </si>
+  <si>
+    <t>Allan Kap24</t>
+  </si>
+  <si>
+    <t>Allan Kap25</t>
+  </si>
+  <si>
+    <t>Allan Kap26</t>
+  </si>
+  <si>
+    <t>Allan Kap27</t>
+  </si>
+  <si>
+    <t>Allan Kap28</t>
+  </si>
+  <si>
+    <t>Allan Kap29</t>
+  </si>
+  <si>
+    <t>Allan Kap30</t>
+  </si>
+  <si>
+    <t>Allan Kap31</t>
+  </si>
+  <si>
+    <t>Allan Kap32</t>
+  </si>
+  <si>
+    <t>Allan Kap33</t>
+  </si>
+  <si>
+    <t>Allan Kap34</t>
+  </si>
+  <si>
+    <t>Allan Kap35</t>
+  </si>
+  <si>
+    <t>Allan Kap36</t>
+  </si>
+  <si>
+    <t>Allan Kap37</t>
+  </si>
+  <si>
+    <t>Allan Kap38</t>
+  </si>
+  <si>
+    <t>Allan Kap39</t>
+  </si>
+  <si>
+    <t>Allan Kap40</t>
+  </si>
+  <si>
+    <t>Allan Kap41</t>
+  </si>
+  <si>
+    <t>Allan Kap42</t>
+  </si>
+  <si>
+    <t>Allan Kap43</t>
+  </si>
+  <si>
+    <t>Allan Kap44</t>
+  </si>
+  <si>
+    <t>Allan Kap45</t>
+  </si>
+  <si>
+    <t>Allan Kap46</t>
+  </si>
+  <si>
+    <t>Allan Kap47</t>
+  </si>
+  <si>
+    <t>Allan Kap48</t>
+  </si>
+  <si>
+    <t>Allan Kap49</t>
+  </si>
+  <si>
+    <t>Allan Kap50</t>
+  </si>
+  <si>
+    <t>Allan Kap51</t>
+  </si>
+  <si>
+    <t>Allan Kap52</t>
+  </si>
+  <si>
+    <t>Allan Kap53</t>
+  </si>
+  <si>
+    <t>Allan Kap54</t>
+  </si>
+  <si>
+    <t>Allan Kap55</t>
+  </si>
+  <si>
+    <t>Allan Kap56</t>
+  </si>
+  <si>
+    <t>Allan Kap57</t>
+  </si>
+  <si>
+    <t>Allan Kap58</t>
+  </si>
+  <si>
+    <t>Allan Kap59</t>
+  </si>
+  <si>
+    <t>Allan Kap60</t>
+  </si>
+  <si>
+    <t>Allan Kap61</t>
+  </si>
+  <si>
+    <t>Allan Kap62</t>
+  </si>
+  <si>
+    <t>Allan Kap63</t>
+  </si>
+  <si>
+    <t>Allan Kap64</t>
+  </si>
+  <si>
+    <t>Allan Kap65</t>
+  </si>
+  <si>
+    <t>Allan Kap66</t>
+  </si>
+  <si>
+    <t>Allan Kap67</t>
+  </si>
+  <si>
+    <t>Allan Kap68</t>
+  </si>
+  <si>
+    <t>Allan Kap69</t>
+  </si>
+  <si>
+    <t>Allan Kap70</t>
+  </si>
+  <si>
+    <t>Allan Kap71</t>
+  </si>
+  <si>
+    <t>Allan Kap72</t>
+  </si>
+  <si>
+    <t>Allan Kap73</t>
+  </si>
+  <si>
+    <t>Allan Kap74</t>
+  </si>
+  <si>
+    <t>Allan Kap75</t>
+  </si>
+  <si>
+    <t>Allan Kap76</t>
+  </si>
+  <si>
+    <t>Allan Kap77</t>
+  </si>
+  <si>
+    <t>Allan Kap78</t>
+  </si>
+  <si>
+    <t>Allan Kap79</t>
+  </si>
+  <si>
+    <t>Allan Kap80</t>
+  </si>
+  <si>
+    <t>Allan Kap81</t>
+  </si>
+  <si>
+    <t>Allan Kap82</t>
+  </si>
+  <si>
+    <t>Allan Kap83</t>
+  </si>
+  <si>
+    <t>Allan Kap84</t>
+  </si>
+  <si>
+    <t>Allan Kap85</t>
+  </si>
+  <si>
+    <t>Allan Kap86</t>
+  </si>
+  <si>
+    <t>Allan Kap87</t>
+  </si>
+  <si>
+    <t>Allan Kap88</t>
+  </si>
+  <si>
+    <t>Allan Kap89</t>
+  </si>
+  <si>
+    <t>Allan Kap90</t>
+  </si>
+  <si>
+    <t>Allan Kap91</t>
+  </si>
+  <si>
+    <t>Allan Kap92</t>
+  </si>
+  <si>
+    <t>Allan Kap93</t>
+  </si>
+  <si>
+    <t>Allan Kap94</t>
+  </si>
+  <si>
+    <t>Allan Kap95</t>
+  </si>
+  <si>
+    <t>Allan Kap96</t>
+  </si>
+  <si>
+    <t>Allan Kap97</t>
+  </si>
+  <si>
+    <t>Allan Kap98</t>
+  </si>
+  <si>
+    <t>Allan Kap99</t>
+  </si>
+  <si>
+    <t>Allan Kap100</t>
+  </si>
+  <si>
+    <t>Allan Kap101</t>
+  </si>
+  <si>
+    <t>Allan Kap102</t>
+  </si>
+  <si>
+    <t>Allan Kap103</t>
+  </si>
+  <si>
+    <t>Allan Kap104</t>
+  </si>
+  <si>
+    <t>Allan Kap105</t>
+  </si>
+  <si>
+    <t>Allan Kap106</t>
+  </si>
+  <si>
+    <t>Allan Kap107</t>
+  </si>
+  <si>
+    <t>Allan Kap108</t>
+  </si>
+  <si>
+    <t>Allan Kap109</t>
+  </si>
+  <si>
+    <t>Allan Kap110</t>
+  </si>
+  <si>
+    <t>Allan Kap111</t>
+  </si>
+  <si>
+    <t>Allan Kap112</t>
+  </si>
+  <si>
+    <t>Allan Kap113</t>
+  </si>
+  <si>
+    <t>Allan Kap114</t>
+  </si>
+  <si>
+    <t>Allan Kap115</t>
+  </si>
+  <si>
+    <t>Allan Kap116</t>
+  </si>
+  <si>
+    <t>Allan Kap117</t>
+  </si>
+  <si>
+    <t>Allan Kap118</t>
+  </si>
+  <si>
+    <t>Allan Kap119</t>
+  </si>
+  <si>
+    <t>Allan Kap120</t>
+  </si>
+  <si>
+    <t>Allan Kap121</t>
+  </si>
+  <si>
+    <t>Allan Kap122</t>
+  </si>
+  <si>
+    <t>Allan Kap123</t>
+  </si>
+  <si>
+    <t>Allan Kap124</t>
+  </si>
+  <si>
+    <t>Allan Kap125</t>
+  </si>
+  <si>
+    <t>Allan Kap126</t>
+  </si>
+  <si>
+    <t>Allan Kap127</t>
+  </si>
+  <si>
+    <t>Allan Kap128</t>
+  </si>
+  <si>
+    <t>Allan Kap129</t>
+  </si>
+  <si>
+    <t>Allan Kap130</t>
+  </si>
+  <si>
+    <t>Allan Kap131</t>
+  </si>
+  <si>
+    <t>Allan Kap132</t>
+  </si>
+  <si>
+    <t>Allan Kap133</t>
+  </si>
+  <si>
+    <t>Allan Kap134</t>
+  </si>
+  <si>
+    <t>Allan Kap135</t>
+  </si>
+  <si>
+    <t>Allan Kap136</t>
+  </si>
+  <si>
+    <t>Allan Kap137</t>
+  </si>
+  <si>
+    <t>Allan Kap138</t>
+  </si>
+  <si>
+    <t>Allan Kap139</t>
+  </si>
+  <si>
+    <t>Allan Kap140</t>
+  </si>
+  <si>
+    <t>Allan Kap141</t>
+  </si>
+  <si>
+    <t>Allan Kap142</t>
+  </si>
+  <si>
+    <t>Allan Kap143</t>
+  </si>
+  <si>
+    <t>Allan Kap144</t>
+  </si>
+  <si>
+    <t>Allan Kap145</t>
+  </si>
+  <si>
+    <t>Allan Kap146</t>
+  </si>
+  <si>
+    <t>Allan Kap147</t>
+  </si>
+  <si>
+    <t>Allan Kap148</t>
+  </si>
+  <si>
+    <t>Allan Kap149</t>
+  </si>
+  <si>
+    <t>Allan Kap150</t>
+  </si>
+  <si>
+    <t>Allan Kap151</t>
+  </si>
+  <si>
+    <t>Allan Kap152</t>
+  </si>
+  <si>
+    <t>Allan Kap153</t>
+  </si>
+  <si>
+    <t>Allan Kap154</t>
+  </si>
+  <si>
+    <t>Allan Kap155</t>
+  </si>
+  <si>
+    <t>Allan Kap156</t>
+  </si>
+  <si>
+    <t>Allan Kap157</t>
+  </si>
+  <si>
+    <t>Allan Kap158</t>
+  </si>
+  <si>
+    <t>Allan Kap159</t>
+  </si>
+  <si>
+    <t>Allan Kap160</t>
+  </si>
+  <si>
+    <t>Allan Kap161</t>
+  </si>
+  <si>
+    <t>Allan Kap162</t>
+  </si>
+  <si>
+    <t>Allan Kap163</t>
+  </si>
+  <si>
+    <t>Allan Kap164</t>
+  </si>
+  <si>
+    <t>Allan Kap165</t>
+  </si>
+  <si>
+    <t>Allan Kap166</t>
+  </si>
+  <si>
+    <t>Allan Kap167</t>
+  </si>
+  <si>
+    <t>Allan Kap168</t>
+  </si>
+  <si>
+    <t>Allan Kap169</t>
+  </si>
+  <si>
+    <t>Allan Kap170</t>
+  </si>
+  <si>
+    <t>Allan Kap171</t>
+  </si>
+  <si>
+    <t>Allan Kap172</t>
+  </si>
+  <si>
+    <t>Allan Kap173</t>
+  </si>
+  <si>
+    <t>Allan Kap174</t>
+  </si>
+  <si>
+    <t>Allan Kap175</t>
+  </si>
+  <si>
+    <t>Allan Kap176</t>
+  </si>
+  <si>
+    <t>Allan Kap177</t>
+  </si>
+  <si>
+    <t>Allan Kap178</t>
+  </si>
+  <si>
+    <t>Allan Kap179</t>
+  </si>
+  <si>
+    <t>Allan Kap180</t>
+  </si>
+  <si>
+    <t>Allan Kap181</t>
+  </si>
+  <si>
+    <t>Allan Kap182</t>
+  </si>
+  <si>
+    <t>Allan Kap183</t>
+  </si>
+  <si>
+    <t>Allan Kap184</t>
+  </si>
+  <si>
+    <t>Allan Kap185</t>
   </si>
 </sst>
 </file>
@@ -385,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +1033,3686 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C7" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1234</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C8" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1235</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1236</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1237</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C11" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C12" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1240</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C15" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1242</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C16" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1243</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C17" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C18" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1245</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C19" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1246</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1247</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C21" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1248</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C22" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1249</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C24" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1251</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C25" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1252</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C26" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1253</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C27" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1254</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C28" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1255</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C29" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1256</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C30" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1257</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C31" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1258</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C32" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1259</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1260</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1261</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C35" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1262</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C36" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1263</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C37" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1264</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C38" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1265</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C39" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1266</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C40" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1267</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1268</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C42" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1269</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C43" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1270</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C44" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1271</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C45" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1272</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C46" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1273</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C47" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1274</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C48" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1275</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C49" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1276</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C50" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1277</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C51" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1278</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C52" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1279</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C53" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C54" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1281</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C55" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1282</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C56" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1283</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C57" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1284</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C58" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1285</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C59" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1286</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C60" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1287</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C61" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1288</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C62" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1289</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C63" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1290</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C64" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1291</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C65" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1292</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C66" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1293</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C67" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1294</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C68" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1295</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C69" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1296</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C70" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1297</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C71" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C72" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1299</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C73" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C74" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1301</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C75" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C76" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1303</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C77" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1304</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C78" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1305</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C79" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1306</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C80" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1307</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C81" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1308</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C82" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1309</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C83" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1310</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C84" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1311</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C85" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1312</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C86" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1313</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C87" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1314</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C88" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1315</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C89" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1316</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C90" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1317</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C91" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C92" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1319</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C93" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1320</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C94" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1321</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C95" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1322</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C96" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1323</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C97" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1324</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C98" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1325</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C99" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1326</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C100" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1327</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C101" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1328</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C102" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1329</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C103" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1330</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C104" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1331</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C105" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1332</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C106" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1333</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C107" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1334</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C108" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1335</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C109" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1336</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C110" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1337</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C111" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1338</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C112" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1339</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C113" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1340</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C114" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1341</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C115" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1342</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C116" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1343</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C117" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1344</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C118" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1345</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C119" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1346</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C120" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1347</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C121" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1348</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C122" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1349</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C123" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1350</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C124" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1351</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C125" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1352</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C126" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1353</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C127" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1354</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C128" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1355</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C129" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1356</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C130" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C131" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1358</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C132" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1359</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C133" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1360</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C134" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1361</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C135" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1362</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C136" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1363</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C137" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1364</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C138" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1365</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C139" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1366</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C140" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1367</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C141" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1368</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C142" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1369</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C143" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1370</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C144" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1371</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C145" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1372</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C146" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1373</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C147" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1374</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C148" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1375</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C149" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1376</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C150" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1377</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C151" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1378</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C152" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1379</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C153" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1380</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C154" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1381</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C155" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1382</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C156" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1383</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C157" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1384</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C158" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1385</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C159" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1386</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C160" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1387</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C161" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1388</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C162" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1389</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C163" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1390</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C164" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1391</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C165" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1392</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C166" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1393</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>176</v>
+      </c>
+      <c r="B167" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C167" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1394</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C168" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1395</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C169" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1396</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C170" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1397</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C171" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1398</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C172" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1399</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C173" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C174" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1401</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C175" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1402</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C176" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1403</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C177" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1404</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C178" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1405</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C179" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1406</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C180" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1407</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C181" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1408</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C182" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1409</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>192</v>
+      </c>
+      <c r="B183" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C183" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="2">
+        <v>1410</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C184" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="2">
+        <v>1411</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C185" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="2">
+        <v>1412</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>195</v>
+      </c>
+      <c r="B186" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C186" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1413</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>196</v>
+      </c>
+      <c r="B187" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C187" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="2">
+        <v>1414</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>197</v>
+      </c>
+      <c r="B188" s="1">
+        <v>54793</v>
+      </c>
+      <c r="C188" s="1">
+        <v>33695</v>
+      </c>
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="2">
+        <v>1415</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
